--- a/WorkBot/refactor/data/orders/Johnston Paper/Johnston Paper_Triphammer_2025-09-26.xlsx
+++ b/WorkBot/refactor/data/orders/Johnston Paper/Johnston Paper_Triphammer_2025-09-26.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,195 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>R801</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sandwich Picks</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>T607646</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Container - Deli (64oz)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>123.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>123.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>K8</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Wrap - EZ Poly (8" x 10.75")</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>57.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>171.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3M84CC</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Scrubbies - Steel</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>48.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>48.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>86N</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Scrubbies - Green</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>711603</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>NABC Bathroom Cleaner</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>473020010</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Copy Paper (8.5" x 11")</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>50.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>50.06</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
